--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084A1EC1-FC7F-444A-9A33-33E70BCF909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC6C78-E228-47BE-9D4D-CF1DB5314AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|3|2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2|3|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,11 +279,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2|4|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|2.6|1.6</t>
+    <t>2|4|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|3|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -732,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -749,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -781,7 +777,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -836,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -865,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -894,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -923,10 +919,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -955,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -981,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1010,10 +1006,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1039,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1071,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1097,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1126,10 +1122,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1155,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1187,7 +1183,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1213,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1244,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1273,10 +1269,10 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1306,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1339,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1372,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1405,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1438,10 +1434,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1471,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1504,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1537,10 +1533,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1570,10 +1566,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1603,10 +1599,10 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1636,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -1672,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1702,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1731,10 +1727,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -1760,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1789,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1818,10 +1814,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
         <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1847,10 +1843,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
         <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -1879,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1905,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1925,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
         <v>38</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -1945,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -1965,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -1985,10 +1981,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2005,10 +2001,10 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2025,10 +2021,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2045,10 +2041,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -2068,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2085,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2105,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
         <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>39</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -2125,10 +2121,10 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2145,10 +2141,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2165,10 +2161,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2185,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2205,10 +2201,10 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2225,10 +2221,10 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -2245,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2265,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
         <v>38</v>
-      </c>
-      <c r="E62" t="s">
-        <v>39</v>
       </c>
       <c r="F62">
         <v>8</v>
@@ -2285,10 +2281,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2305,10 +2301,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2325,10 +2321,10 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2345,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2368,7 +2364,7 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2385,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
         <v>38</v>
-      </c>
-      <c r="E68" t="s">
-        <v>39</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -2405,10 +2401,10 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
         <v>38</v>
-      </c>
-      <c r="E69" t="s">
-        <v>39</v>
       </c>
       <c r="F69">
         <v>8</v>
@@ -2425,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2445,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -2465,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -2485,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -2505,10 +2501,10 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2525,10 +2521,10 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2545,10 +2541,10 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -2565,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2585,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
         <v>38</v>
-      </c>
-      <c r="E78" t="s">
-        <v>39</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -2605,10 +2601,10 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
         <v>38</v>
-      </c>
-      <c r="E79" t="s">
-        <v>39</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -2625,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2645,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81">
         <v>4</v>
@@ -2665,10 +2661,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82">
         <v>4</v>
@@ -2685,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2705,10 +2701,10 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -2725,10 +2721,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2745,10 +2741,10 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -2765,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" t="s">
         <v>58</v>
-      </c>
-      <c r="E87" t="s">
-        <v>59</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2785,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -2805,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" t="s">
         <v>58</v>
-      </c>
-      <c r="E89" t="s">
-        <v>59</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2825,10 +2821,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F90">
         <v>8</v>
@@ -2845,10 +2841,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -2865,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2885,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F93">
         <v>8</v>
@@ -2905,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="s">
         <v>38</v>
-      </c>
-      <c r="E94" t="s">
-        <v>39</v>
       </c>
       <c r="F94">
         <v>8</v>
@@ -2925,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -2945,10 +2941,10 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>4</v>
@@ -2965,10 +2961,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -2985,10 +2981,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -3005,10 +3001,10 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -3025,10 +3021,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3045,10 +3041,10 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101">
         <v>8</v>
@@ -3065,10 +3061,10 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F102">
         <v>45</v>
@@ -3085,10 +3081,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3104,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B545B0-C8D1-49E4-B508-EC96D58B94E1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC6C78-E228-47BE-9D4D-CF1DB5314AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAC09A-2B82-4956-AE9F-EDE2D14F4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -3101,7 +3101,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3185,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3317,7 +3317,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3328,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
         <v>19</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAC09A-2B82-4956-AE9F-EDE2D14F4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D169608-383D-4D64-84A5-E68BCE5C3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|2.5|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>firstGenerateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3|5|7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2|3|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.5|2.5|1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200|200|200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6|5|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6|66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3|3|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3|2|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3|3|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,22 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20|6|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90|90|90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9999|9999|9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4|2.8|1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,7 +247,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|3|3</t>
+    <t>3|4|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000|2000|2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|6|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|3|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999|999999|999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|20|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|15|15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|8|6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,7 +667,7 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -671,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -708,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -728,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -745,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -774,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -806,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -832,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -861,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -890,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -919,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -951,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -977,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1006,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1035,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1067,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1093,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1122,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1151,10 +1167,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1183,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1209,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1240,10 +1256,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1269,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1302,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1335,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1368,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1401,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1434,10 +1450,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1467,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1500,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1533,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1566,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1599,10 +1615,10 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1632,10 +1648,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -1668,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1698,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1727,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -1756,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1785,10 +1801,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1814,10 +1830,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1843,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -1875,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1901,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1921,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -1941,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -1961,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -1981,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2001,10 +2017,10 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2021,10 +2037,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2041,10 +2057,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -2064,7 +2080,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2081,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2101,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -2121,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2141,10 +2157,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2161,10 +2177,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2181,10 +2197,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2201,10 +2217,10 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2221,10 +2237,10 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -2241,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2261,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F62">
         <v>8</v>
@@ -2281,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2301,10 +2317,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2321,10 +2337,10 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2341,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2364,7 +2380,7 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2381,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -2401,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F69">
         <v>8</v>
@@ -2421,10 +2437,10 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2441,10 +2457,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -2461,10 +2477,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -2481,10 +2497,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -2501,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2521,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2541,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -2561,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2581,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -2601,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -2621,10 +2637,10 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2641,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81">
         <v>4</v>
@@ -2661,10 +2677,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F82">
         <v>4</v>
@@ -2681,10 +2697,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2701,10 +2717,10 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -2721,10 +2737,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2741,10 +2757,10 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -2761,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2781,10 +2797,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -2801,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2821,10 +2837,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F90">
         <v>8</v>
@@ -2841,10 +2857,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -2861,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2881,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F93">
         <v>8</v>
@@ -2901,13 +2917,13 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2921,13 +2937,13 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2941,13 +2957,13 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2961,13 +2977,13 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,13 +2997,13 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3001,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3021,13 +3037,13 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3041,13 +3057,13 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3061,10 +3077,10 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>45</v>
@@ -3081,10 +3097,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3100,7 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B545B0-C8D1-49E4-B508-EC96D58B94E1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D169608-383D-4D64-84A5-E68BCE5C3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A386B9C4-D77A-46A7-B2DC-BF0FC6A62E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>999999|999999|999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10|10|10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,10 @@
   </si>
   <si>
     <t>6|8|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999|99999999|99999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +635,7 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93">
         <v>8</v>
@@ -2920,7 +2920,7 @@
         <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F94">
         <v>16</v>
@@ -2940,7 +2940,7 @@
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F95">
         <v>20</v>
@@ -2980,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F97">
         <v>8</v>
@@ -3000,7 +3000,7 @@
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F98">
         <v>16</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F99">
         <v>12</v>
@@ -3040,7 +3040,7 @@
         <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F100">
         <v>16</v>
@@ -3060,7 +3060,7 @@
         <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F101">
         <v>20</v>
@@ -3100,10 +3100,10 @@
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>-99999999</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A386B9C4-D77A-46A7-B2DC-BF0FC6A62E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA52B3A-D6F8-4EE6-9DAB-F414DB255D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
@@ -3116,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B545B0-C8D1-49E4-B508-EC96D58B94E1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3289,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3311,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3333,7 +3333,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <v>19</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA52B3A-D6F8-4EE6-9DAB-F414DB255D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D73DB-B916-4A09-90D8-8A479BED870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Wave" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,14 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20|15|15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90|90|90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4|2.8|1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,35 +263,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30|20|20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|15|15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6|8|6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>99999999|99999999|99999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60|60|60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|15|15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|4|3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|5|6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -761,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -790,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -909,7 +897,7 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1351,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1384,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1417,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1453,7 +1441,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2060,7 +2048,7 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -2240,7 +2228,7 @@
         <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -2257,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2300,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2320,7 +2308,7 @@
         <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2340,7 +2328,7 @@
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2360,7 +2348,7 @@
         <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2560,7 +2548,7 @@
         <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -2760,7 +2748,7 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -2780,7 +2768,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2800,7 +2788,7 @@
         <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -2820,7 +2808,7 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2840,7 +2828,7 @@
         <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F90">
         <v>8</v>
@@ -2874,13 +2862,13 @@
         <v>20</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2894,16 +2882,16 @@
         <v>20</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2914,16 +2902,16 @@
         <v>20</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
         <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2934,16 +2922,16 @@
         <v>20</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F95">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2954,16 +2942,16 @@
         <v>20</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F96">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2974,16 +2962,16 @@
         <v>20</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2994,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F98">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3014,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3034,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F100">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3054,16 +3042,16 @@
         <v>20</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
         <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F101">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3074,16 +3062,16 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
         <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F102">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3094,15 +3082,35 @@
         <v>20</v>
       </c>
       <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2033</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
         <v>12</v>
       </c>
-      <c r="D103" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103">
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104">
         <v>-99999999</v>
       </c>
     </row>
@@ -3116,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B545B0-C8D1-49E4-B508-EC96D58B94E1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D73DB-B916-4A09-90D8-8A479BED870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307873F1-9DFE-4ECF-BA30-FAA41DA63591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3|4|5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8|8|8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +284,14 @@
   </si>
   <si>
     <t>8|5|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|4|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|2.8|1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -813,7 +817,7 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -897,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1342,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1375,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1408,7 +1412,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1441,7 +1445,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2048,7 +2052,7 @@
         <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -2228,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -2268,7 +2272,7 @@
         <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62">
         <v>8</v>
@@ -2288,7 +2292,7 @@
         <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2308,7 +2312,7 @@
         <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2328,7 +2332,7 @@
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2348,7 +2352,7 @@
         <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2548,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -2748,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -2768,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2788,7 +2792,7 @@
         <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -2808,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2828,7 +2832,7 @@
         <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F90">
         <v>8</v>
@@ -2888,7 +2892,7 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2908,7 +2912,7 @@
         <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <v>8</v>
@@ -2928,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <v>16</v>
@@ -2948,7 +2952,7 @@
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>20</v>
@@ -2968,7 +2972,7 @@
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F97">
         <v>24</v>
@@ -2988,7 +2992,7 @@
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>8</v>
@@ -3008,7 +3012,7 @@
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>16</v>
@@ -3028,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -3048,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F101">
         <v>16</v>
@@ -3068,7 +3072,7 @@
         <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F102">
         <v>20</v>
@@ -3088,7 +3092,7 @@
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F103">
         <v>45</v>
@@ -3108,7 +3112,7 @@
         <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104">
         <v>-99999999</v>

--- a/ExcelToCs/配置/波次配置表.xlsx
+++ b/ExcelToCs/配置/波次配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307873F1-9DFE-4ECF-BA30-FAA41DA63591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E553F-8908-4A00-B33D-8E3CC5276122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
